--- a/biology/Zoologie/Freyeria/Freyeria.xlsx
+++ b/biology/Zoologie/Freyeria/Freyeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freyeria est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Systématique et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Freyeria a été décrit par l'entomologiste suisse Ludwig Georg Courvoisier en 1920.
-Son espèce type est Lycaena trochylus Freyer, 1845[1].
+Son espèce type est Lycaena trochylus Freyer, 1845.
 Le genre est classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini.
-Il a été traité par certains auteurs comme un synonyme ou un sous-genre de Chilades, mais la phylogénétique moléculaire a montré qu'il doit être considéré comme un genre distinct[2]. 
+Il a été traité par certains auteurs comme un synonyme ou un sous-genre de Chilades, mais la phylogénétique moléculaire a montré qu'il doit être considéré comme un genre distinct. 
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Funet[1] :
-Freyeria putli (Kollar, [1844]) — Asie du Sud, Australie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Funet :
+Freyeria putli (Kollar, ) — Asie du Sud, Australie.
 Freyeria minuscula (Aurivillius, 1909) — Madagascar.
 Freyeria trochylus (Freyer, 1845) — l'Azuré de l'héliotrope — Afrique, Asie, Sud-Est de l'Europe.
 			Freyeria putli
